--- a/logsearch/data/error_logs/UC1_UC1_新人_11_copy_51.xlsx
+++ b/logsearch/data/error_logs/UC1_UC1_新人_11_copy_51.xlsx
@@ -515,7 +515,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Tsubasa Takahashi</t>
+          <t>Naoto Murakami</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -548,12 +548,12 @@
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>bdot20240415_141953/0415_141958_0.png</t>
+          <t>bdot20240415_141954/1.png</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>「スタート」ボタンをクリックするか、キーボードの「Windowsキー」を押す</t>
+          <t>「スタート」ボタンをクリックする</t>
         </is>
       </c>
       <c r="L2" t="inlineStr"/>
@@ -570,7 +570,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Tsubasa Takahashi</t>
+          <t>Naoto Murakami</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -603,12 +603,12 @@
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>bdot20240415_141953/0415_142001_0.png</t>
+          <t>bdot20240415_141954/2.png</t>
         </is>
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>メニューから「設定」アイコン（歯車アイコン）をクリックする</t>
+          <t>メニューから「設定」アイコンをクリックする</t>
         </is>
       </c>
       <c r="L3" t="inlineStr"/>
@@ -625,7 +625,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Tsubasa Takahashi</t>
+          <t>Naoto Murakami</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -658,12 +658,12 @@
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>bdot20240415_141953/0415_142001_0.png</t>
+          <t>bdot20240415_141954/3.png</t>
         </is>
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>「更新とセキュリティ」オプションを選択する</t>
+          <t>左側のメニューからWindows Updateをクリックし、Windows Update画面に移動する</t>
         </is>
       </c>
       <c r="L4" t="inlineStr"/>
@@ -675,12 +675,12 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>operation</t>
+          <t>error</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Tsubasa Takahashi</t>
+          <t>Naoto Murakami</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -713,16 +713,24 @@
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>bdot20240415_141953/0415_142001_0.png</t>
+          <t>bdot20240415_141954/4.png</t>
         </is>
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>左側のメニューから「Windows Update」をクリックし、Windows Update画面に移動する</t>
-        </is>
-      </c>
-      <c r="L5" t="inlineStr"/>
-      <c r="M5" t="inlineStr"/>
+          <t>0x80240fff エラー</t>
+        </is>
+      </c>
+      <c r="L5" t="inlineStr">
+        <is>
+          <t>Error W</t>
+        </is>
+      </c>
+      <c r="M5" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> エラーの Windows</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
@@ -735,7 +743,7 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Tsubasa Takahashi</t>
+          <t>Naoto Murakami</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -768,12 +776,12 @@
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>bdot20240415_141953/0415_142001_0.png</t>
+          <t>bdot20240415_141954/5.png</t>
         </is>
       </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>「更新プログラムのチェック」ボタンをクリックする</t>
+          <t>デスクトップ画面の左下にある「スタート」ボタンを右クリックする</t>
         </is>
       </c>
       <c r="L6" t="inlineStr"/>
@@ -785,12 +793,12 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>operation</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Tsubasa Takahashi</t>
+          <t>Naoto Murakami</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -823,24 +831,16 @@
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>bdot20240415_141953/0415_142001_0.png</t>
+          <t>bdot20240415_141954/5.png</t>
         </is>
       </c>
       <c r="K7" t="inlineStr">
         <is>
-          <t>0x80244007 エラー</t>
-        </is>
-      </c>
-      <c r="L7" t="inlineStr">
-        <is>
-          <t>Error W</t>
-        </is>
-      </c>
-      <c r="M7" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> エラーの Windows</t>
-        </is>
-      </c>
+          <t>メニューからターミナル(管理者)をクリックする</t>
+        </is>
+      </c>
+      <c r="L7" t="inlineStr"/>
+      <c r="M7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
@@ -853,7 +853,7 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Tsubasa Takahashi</t>
+          <t>Naoto Murakami</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -886,12 +886,12 @@
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>bdot20240415_141953/0415_142001_0.png</t>
+          <t>bdot20240415_141954/6.png</t>
         </is>
       </c>
       <c r="K8" t="inlineStr">
         <is>
-          <t>デスクトップ画面の左下にある「スタート」ボタンを右クリックし、メニューから「Windows PowerShell(管理者)(A)」をクリックする</t>
+          <t>ユーザーアカウント制御と表示されているウィンドウが開いたことを確認する</t>
         </is>
       </c>
       <c r="L8" t="inlineStr"/>
@@ -908,7 +908,7 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Tsubasa Takahashi</t>
+          <t>Naoto Murakami</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -941,12 +941,12 @@
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>bdot20240415_141953/0415_142001_0.png</t>
+          <t>bdot20240415_141954/7.png</t>
         </is>
       </c>
       <c r="K9" t="inlineStr">
         <is>
-          <t>「管理者：Windows PowerShell」と表示されているウィンドウが開いたことを確認する</t>
+          <t>PowerShellウィンドウに start-transcript と入力し、[Enter]キーを押す</t>
         </is>
       </c>
       <c r="L9" t="inlineStr"/>
@@ -963,7 +963,7 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Tsubasa Takahashi</t>
+          <t>Naoto Murakami</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
@@ -996,12 +996,12 @@
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>bdot20240415_141953/0415_142001_0.png</t>
+          <t>bdot20240415_141954/8.png</t>
         </is>
       </c>
       <c r="K10" t="inlineStr">
         <is>
-          <t>PowerShellウィンドウに Start-Transcript と入力し、[Enter]キーを押す</t>
+          <t>wuauclt.exe /resetauthorization /detectnow と入力し、[Enter]キーを押す</t>
         </is>
       </c>
       <c r="L10" t="inlineStr"/>
@@ -1018,7 +1018,7 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Tsubasa Takahashi</t>
+          <t>Naoto Murakami</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
@@ -1051,12 +1051,12 @@
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>bdot20240415_141953/0415_142001_0.png</t>
+          <t>bdot20240415_141954/9.png</t>
         </is>
       </c>
       <c r="K11" t="inlineStr">
         <is>
-          <t>wuauclt.exe /resetauthorization /detectnow と入力し、[Enter]キーを押す</t>
+          <t>netsh winhttp show proxy と入力し、[Enter]キーを押す</t>
         </is>
       </c>
       <c r="L11" t="inlineStr"/>
@@ -1073,7 +1073,7 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Tsubasa Takahashi</t>
+          <t>Naoto Murakami</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
@@ -1106,12 +1106,12 @@
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>bdot20240415_141953/0415_142001_0.png</t>
+          <t>bdot20240415_141954/10.png</t>
         </is>
       </c>
       <c r="K12" t="inlineStr">
         <is>
-          <t>netsh winhttp show proxy と入力し、[Enter]キーを押す</t>
+          <t>netsh winhttp reset proxy と入力し、[Enter]キーを押す</t>
         </is>
       </c>
       <c r="L12" t="inlineStr"/>
@@ -1128,7 +1128,7 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Tsubasa Takahashi</t>
+          <t>Naoto Murakami</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
@@ -1161,12 +1161,12 @@
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>bdot20240415_141953/0415_142001_0.png</t>
+          <t>bdot20240415_141954/1.png</t>
         </is>
       </c>
       <c r="K13" t="inlineStr">
         <is>
-          <t>netsh winhttp reset proxy と入力し、[Enter]キーを押す</t>
+          <t>「スタート」ボタンをクリックする</t>
         </is>
       </c>
       <c r="L13" t="inlineStr"/>
@@ -1183,7 +1183,7 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Tsubasa Takahashi</t>
+          <t>Naoto Murakami</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
@@ -1216,12 +1216,12 @@
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>bdot20240415_141953/0415_142001_0.png</t>
+          <t>bdot20240415_141954/2.png</t>
         </is>
       </c>
       <c r="K14" t="inlineStr">
         <is>
-          <t>Windowsの設定画面に戻り、「更新とセキュリティ」→「Windows Update」にアクセスする</t>
+          <t>メニューから「設定」アイコンをクリックする</t>
         </is>
       </c>
       <c r="L14" t="inlineStr"/>
@@ -1238,7 +1238,7 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>Tsubasa Takahashi</t>
+          <t>Naoto Murakami</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
@@ -1271,12 +1271,12 @@
       </c>
       <c r="J15" t="inlineStr">
         <is>
-          <t>bdot20240415_141953/0415_142001_0.png</t>
+          <t>bdot20240415_141954/3.png</t>
         </is>
       </c>
       <c r="K15" t="inlineStr">
         <is>
-          <t>「更新プログラムのチェック」ボタンをクリックする</t>
+          <t>左側のメニューからWindows Updateをクリックし、Windows Update画面に移動する</t>
         </is>
       </c>
       <c r="L15" t="inlineStr"/>
@@ -1293,7 +1293,7 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>Tsubasa Takahashi</t>
+          <t>Naoto Murakami</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
@@ -1326,12 +1326,12 @@
       </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t>bdot20240415_141953/0415_142001_0.png</t>
+          <t>bdot20240415_141954/11.png</t>
         </is>
       </c>
       <c r="K16" t="inlineStr">
         <is>
-          <t>正常に更新がチェックする</t>
+          <t>「更新プログラムのチェック」ボタンをクリックする</t>
         </is>
       </c>
       <c r="L16" t="inlineStr"/>
